--- a/src/excel-data/shikoku.xlsx
+++ b/src/excel-data/shikoku.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A3328B-61F2-1447-B057-31609F49AADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FEF5EC-FA5B-F747-B764-29E81FDA4992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>sortOrder</t>
   </si>
@@ -37,16 +37,10 @@
     <t>price_adult_regular</t>
   </si>
   <si>
-    <t>price_adult_advance</t>
-  </si>
-  <si>
     <t>price_adult_phone</t>
   </si>
   <si>
     <t>price_child_regular</t>
-  </si>
-  <si>
-    <t>price_child_advance</t>
   </si>
   <si>
     <t>price_child_phone</t>
@@ -135,13 +129,25 @@
   </si>
   <si>
     <t>city</t>
+  </si>
+  <si>
+    <t>price_over65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_under15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_free</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +160,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -174,13 +188,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,15 +535,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="13" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,139 +576,471 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
       <c r="E2">
         <v>830</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="G2">
         <v>420</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
+      <c r="H2" t="s">
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
         <v>35</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3</v>
       </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
+      <c r="AA2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="11:13">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="11:13">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="11:13">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="11:13">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="11:13">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="11:13">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="11:13">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="11:13">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="11:13">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="11:13">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="97" spans="11:13">
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="11:13">
+      <c r="K98">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="99" spans="11:13">
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="11:13">
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="11:13">
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="11:13">
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="11:13">
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="11:13">
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="11:13">
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="11:13">
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="11:13">
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="11:13">
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="11:13">
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="11:13">
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="11:13">
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="11:13">
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="11:13">
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="11:13">
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="11:13">
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="11:13">
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="11:13">
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="11:13">
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="11:13">
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="11:13">
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="11:13">
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="11:13">
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="11:13">
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="11:13">
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="11:13">
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="11:13">
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="11:13">
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="11:13">
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="11:13">
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="11:13">
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="11:13">
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="11:13">
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="11:13">
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="11:13">
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="11:13">
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="11:13">
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="11:13">
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="11:13">
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="11:13">
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="11:13">
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="11:13">
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="11:13">
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="11:13">
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="11:13">
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="11:13">
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="11:13">
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="11:13">
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="11:13">
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="11:13">
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="11:13">
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="11:13">
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="11:13">
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/shikoku.xlsx
+++ b/src/excel-data/shikoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FEF5EC-FA5B-F747-B764-29E81FDA4992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CABE316-4E1D-8D41-B72F-D75EEC430673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="154">
   <si>
     <t>sortOrder</t>
   </si>
@@ -101,15 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sapporo-subway-1day</t>
-  </si>
-  <si>
-    <t>札幌市营地铁全线一日券</t>
-  </si>
-  <si>
-    <t>札幌地铁全线路的一日券，适合札幌市内一日游。</t>
-  </si>
-  <si>
     <t>现金支付; 购票机可购买</t>
   </si>
   <si>
@@ -117,12 +108,6 @@
   </si>
   <si>
     <t>北海道</t>
-  </si>
-  <si>
-    <t>/images/coverage/sapporo-subway-1day.png</t>
-  </si>
-  <si>
-    <t>不问国籍所有游客皆可购买</t>
   </si>
   <si>
     <t>地铁</t>
@@ -141,13 +126,373 @@
   <si>
     <t>price_free</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JRShikoku-FreePass</t>
+  </si>
+  <si>
+    <t>四国フリーきっぷ</t>
+  </si>
+  <si>
+    <t>四国自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRShikoku-FreePass.png</t>
+  </si>
+  <si>
+    <t>JRShikoku-Green-Kiko</t>
+  </si>
+  <si>
+    <t>四国グリーン紀行</t>
+  </si>
+  <si>
+    <t>四国绿行通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRShikoku-Green-Kiko.png</t>
+  </si>
+  <si>
+    <t>Shimanto-Uwakai-FreeTicket</t>
+  </si>
+  <si>
+    <t>四万十・宇和海フリーきっぷ</t>
+  </si>
+  <si>
+    <t>四万十·宇和海自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shimanto-Uwakai-FreeTicket.png</t>
+  </si>
+  <si>
+    <t>Kotoden-JR-Kururin-Kippu</t>
+  </si>
+  <si>
+    <t>ことでん・JRくるり～んきっぷ</t>
+  </si>
+  <si>
+    <t>琴电·JR转环通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kotoden-JR-Kururin-Kippu.png</t>
+  </si>
+  <si>
+    <t>JRShikoku-Weekend-Norihodai</t>
+  </si>
+  <si>
+    <t>週末乗り放題きっぷ</t>
+  </si>
+  <si>
+    <t>周末无限乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRShikoku-Weekend-Norihodai.png</t>
+  </si>
+  <si>
+    <t>JRShikoku-Raihaku-Hayatoroku</t>
+  </si>
+  <si>
+    <t>四国再発見早トクきっぷ</t>
+  </si>
+  <si>
+    <t>四国再发现早鸟优惠券</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRShikoku-Raihaku-Hayatoroku.png</t>
+  </si>
+  <si>
+    <t>Smart-Eki-Shikoku-FreePass</t>
+  </si>
+  <si>
+    <t>スマえき四国フリーきっぷ</t>
+  </si>
+  <si>
+    <t>智能车票四国自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Smart-Eki-Shikoku-FreePass.png</t>
+  </si>
+  <si>
+    <t>Shikokururi-Shikoku-FreePass</t>
+  </si>
+  <si>
+    <t>しこくるり四国フリーきっぷ</t>
+  </si>
+  <si>
+    <t>四国环游自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shikokururi-Shikoku-FreePass.png</t>
+  </si>
+  <si>
+    <t>Tabiwa-Shikoku-FreePass</t>
+  </si>
+  <si>
+    <t>tabiwa四国フリーきっぷ</t>
+  </si>
+  <si>
+    <t>tabiwa四国自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tabiwa-Shikoku-FreePass.png</t>
+  </si>
+  <si>
+    <t>Birthday-Kippu</t>
+  </si>
+  <si>
+    <t>バースデイきっぷ</t>
+  </si>
+  <si>
+    <t>生日优惠券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Birthday-Kippu.png</t>
+  </si>
+  <si>
+    <t>Uchiko-Ozu-Town-Walking-1Day-Pass</t>
+  </si>
+  <si>
+    <t>内子・大洲町並散策１日パス</t>
+  </si>
+  <si>
+    <t>内子·大洲街道散策一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Uchiko-Ozu-Town-Walking-1Day-Pass.png</t>
+  </si>
+  <si>
+    <t>Tokushima-Muroto-Kochi-55-FreePass</t>
+  </si>
+  <si>
+    <t>徳島・室戸・高知55フリーきっぷ</t>
+  </si>
+  <si>
+    <t>德岛·室户·高知55自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tokushima-Muroto-Kochi-55-FreePass.png</t>
+  </si>
+  <si>
+    <t>Kotoden-1Day-FreePass</t>
+  </si>
+  <si>
+    <t>ことでん１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>琴平电铁一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kotoden-1Day-FreePass.png</t>
+  </si>
+  <si>
+    <t>Kotoden-Onsen-Rail-Bathing-Ticket</t>
+  </si>
+  <si>
+    <t>ことでんおんせん乗車入浴券</t>
+  </si>
+  <si>
+    <t>琴平温泉乘车入浴券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kotoden-Onsen-Rail-Bathing-Ticket.png</t>
+  </si>
+  <si>
+    <t>Kotoden-Rail-JR-Kururin-Kippu</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kotoden-Rail-JR-Kururin-Kippu.png</t>
+  </si>
+  <si>
+    <t>Kotoden-Rail-Limousine-Pass</t>
+  </si>
+  <si>
+    <t>レール＆リムジンパス</t>
+  </si>
+  <si>
+    <t>铁路和巴士通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kotoden-Rail-Limousine-Pass.png</t>
+  </si>
+  <si>
+    <t>Kotoden-New-Reoma-World-Set-Kippu</t>
+  </si>
+  <si>
+    <t>ことでん×NEWレオマワールドセットきっぷ</t>
+  </si>
+  <si>
+    <t>琴电×新レオマ世界套票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kotoden-New-Reoma-World-Set-Kippu.png</t>
+  </si>
+  <si>
+    <t>Kotoden-Digital-Kippu</t>
+  </si>
+  <si>
+    <t>ことでんデジタルきっぷ</t>
+  </si>
+  <si>
+    <t>琴电电子票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kotoden-Digital-Kippu.png</t>
+  </si>
+  <si>
+    <t>Yashima-Shikoku-Mura-Shido-Line-Pass</t>
+  </si>
+  <si>
+    <t>やしま四国村・志度線パス</t>
+  </si>
+  <si>
+    <t>八岛四国村·志度线通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Yashima-Shikoku-Mura-Shido-Line-Pass.png</t>
+  </si>
+  <si>
+    <t>Udonken-Yadon-1Day-Kippu</t>
+  </si>
+  <si>
+    <t>うどん県×ヤドン 1日フリー切符</t>
+  </si>
+  <si>
+    <t>乌冬县×Yadon 一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Udonken-Yadon-1Day-Kippu.png</t>
+  </si>
+  <si>
+    <t>Iyotetsu-City-Tram-Suburban-1Day</t>
+  </si>
+  <si>
+    <t>市内電車･郊外電車 1Dayチケット</t>
+  </si>
+  <si>
+    <t>伊予铁道市内电车·郊外电车1日票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Iyotetsu-City-Tram-Suburban-1Day.png</t>
+  </si>
+  <si>
+    <t>Iyotetsu-City-Tram-Limousine-Bus-1Day</t>
+  </si>
+  <si>
+    <t>市内電車･リムジンバス 1Dayチケット</t>
+  </si>
+  <si>
+    <t>伊予铁道市内电车·机场巴士1日票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Iyotetsu-City-Tram-Limousine-Bus-1Day.png</t>
+  </si>
+  <si>
+    <t>Tosaden-Densha-1Day-City-Fare</t>
+  </si>
+  <si>
+    <t>電車１日乗車券～市内均一料金区間版～</t>
+  </si>
+  <si>
+    <t>土佐电车一日乘车券（市内均一价格区间版）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tosaden-Densha-1Day-City-Fare.png</t>
+  </si>
+  <si>
+    <t>Tosaden-Densha-24Hr-City-Fare</t>
+  </si>
+  <si>
+    <t>電車24時間乗車券～市内均一料金区間版～</t>
+  </si>
+  <si>
+    <t>土佐电车24小时票（市内均一价格区间版）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tosaden-Densha-24Hr-City-Fare.png</t>
+  </si>
+  <si>
+    <t>Tosaden-Densha-1Day-Whole-Line</t>
+  </si>
+  <si>
+    <t>電車１日乗車券～軌道全線版～</t>
+  </si>
+  <si>
+    <t>土佐电车一日票（轨道全线版）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tosaden-Densha-1Day-Whole-Line.png</t>
+  </si>
+  <si>
+    <t>Tosaden-Densha-24Hr-Whole-Line</t>
+  </si>
+  <si>
+    <t>電車24時間乗車券～軌道全線版～</t>
+  </si>
+  <si>
+    <t>土佐电车24小时票（轨道全线版）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tosaden-Densha-24Hr-Whole-Line.png</t>
+  </si>
+  <si>
+    <t>Tosaden-Bus-Tram-1Day-Mobile-Ticket</t>
+  </si>
+  <si>
+    <t>バス・路面電車一日乗車券 モバイルチケット</t>
+  </si>
+  <si>
+    <t>土佐电车·巴士一日移动票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tosaden-Bus-Tram-1Day-Mobile-Ticket.png</t>
+  </si>
+  <si>
+    <t>Kurosio-Nahari-Sen-Free-Pass</t>
+  </si>
+  <si>
+    <t>ごめん・なはり線フリーきっぷ</t>
+  </si>
+  <si>
+    <t>土佐黑潮线自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kurosio-Nahari-Sen-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>Kurosio-1Day-Free-Pass</t>
+  </si>
+  <si>
+    <t>くろしお1日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>黑潮1日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kurosio-1Day-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>Shikoku-Shimanto-Uwakai-Free-Pass</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shikoku-Shimanto-Uwakai-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>Higashi-Kochi-1Day-Free</t>
+  </si>
+  <si>
+    <t>ひがしこうち1日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>东高知一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Higashi-Kochi-1Day-Free.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +514,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,9 +543,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -535,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA152"/>
+  <dimension ref="A1:AD151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -550,7 +902,7 @@
     <col min="12" max="13" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -585,10 +937,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
         <v>25</v>
@@ -633,42 +985,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:30">
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
-        <v>830</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>420</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -680,16 +1008,13 @@
         <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="W2" t="s">
         <v>23</v>
@@ -698,79 +1023,482 @@
         <v>23</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z2">
         <v>3</v>
       </c>
-      <c r="AA2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="11:13">
+      <c r="AD2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30">
+      <c r="B17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30">
+      <c r="B18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30">
+      <c r="B19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30">
+      <c r="B20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="T20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30">
+      <c r="B21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="11:13">
+      <c r="T21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30">
+      <c r="B22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="11:13">
+      <c r="T22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30">
+      <c r="B23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="11:13">
+      <c r="T23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30">
+      <c r="B24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="11:13">
+      <c r="T24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30">
+      <c r="B25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="11:13">
+      <c r="T25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30">
+      <c r="B26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="11:13">
+      <c r="T26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30">
+      <c r="B27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="11:13">
+      <c r="T27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30">
+      <c r="B28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="11:13">
+      <c r="T28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30">
+      <c r="B29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="11:13">
+      <c r="T29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30">
+      <c r="B30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="11:13">
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="T30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30">
+      <c r="B31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30">
+      <c r="B32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="11:13">
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
+      <c r="K97">
+        <v>2330</v>
+      </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98">
-        <v>2330</v>
-      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
     </row>
     <row r="99" spans="11:13">
       <c r="K99" s="1"/>
@@ -1036,11 +1764,6 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
-    </row>
-    <row r="152" spans="11:13">
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/shikoku.xlsx
+++ b/src/excel-data/shikoku.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CABE316-4E1D-8D41-B72F-D75EEC430673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7205D329-6FAE-064E-899A-F662C1F38DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shikoku周游券" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="125">
   <si>
     <t>sortOrder</t>
   </si>
@@ -104,12 +104,6 @@
     <t>现金支付; 购票机可购买</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>北海道</t>
-  </si>
-  <si>
     <t>地铁</t>
   </si>
   <si>
@@ -200,78 +194,6 @@
     <t>/images/coverage/JRShikoku-Raihaku-Hayatoroku.png</t>
   </si>
   <si>
-    <t>Smart-Eki-Shikoku-FreePass</t>
-  </si>
-  <si>
-    <t>スマえき四国フリーきっぷ</t>
-  </si>
-  <si>
-    <t>智能车票四国自由乘车券</t>
-  </si>
-  <si>
-    <t>/images/coverage/Smart-Eki-Shikoku-FreePass.png</t>
-  </si>
-  <si>
-    <t>Shikokururi-Shikoku-FreePass</t>
-  </si>
-  <si>
-    <t>しこくるり四国フリーきっぷ</t>
-  </si>
-  <si>
-    <t>四国环游自由乘车券</t>
-  </si>
-  <si>
-    <t>/images/coverage/Shikokururi-Shikoku-FreePass.png</t>
-  </si>
-  <si>
-    <t>Tabiwa-Shikoku-FreePass</t>
-  </si>
-  <si>
-    <t>tabiwa四国フリーきっぷ</t>
-  </si>
-  <si>
-    <t>tabiwa四国自由乘车券</t>
-  </si>
-  <si>
-    <t>/images/coverage/Tabiwa-Shikoku-FreePass.png</t>
-  </si>
-  <si>
-    <t>Birthday-Kippu</t>
-  </si>
-  <si>
-    <t>バースデイきっぷ</t>
-  </si>
-  <si>
-    <t>生日优惠券</t>
-  </si>
-  <si>
-    <t>/images/coverage/Birthday-Kippu.png</t>
-  </si>
-  <si>
-    <t>Uchiko-Ozu-Town-Walking-1Day-Pass</t>
-  </si>
-  <si>
-    <t>内子・大洲町並散策１日パス</t>
-  </si>
-  <si>
-    <t>内子·大洲街道散策一日通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/Uchiko-Ozu-Town-Walking-1Day-Pass.png</t>
-  </si>
-  <si>
-    <t>Tokushima-Muroto-Kochi-55-FreePass</t>
-  </si>
-  <si>
-    <t>徳島・室戸・高知55フリーきっぷ</t>
-  </si>
-  <si>
-    <t>德岛·室户·高知55自由通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/Tokushima-Muroto-Kochi-55-FreePass.png</t>
-  </si>
-  <si>
     <t>Kotoden-1Day-FreePass</t>
   </si>
   <si>
@@ -332,9 +254,6 @@
     <t>ことでんデジタルきっぷ</t>
   </si>
   <si>
-    <t>琴电电子票</t>
-  </si>
-  <si>
     <t>/images/coverage/Kotoden-Digital-Kippu.png</t>
   </si>
   <si>
@@ -350,18 +269,6 @@
     <t>/images/coverage/Yashima-Shikoku-Mura-Shido-Line-Pass.png</t>
   </si>
   <si>
-    <t>Udonken-Yadon-1Day-Kippu</t>
-  </si>
-  <si>
-    <t>うどん県×ヤドン 1日フリー切符</t>
-  </si>
-  <si>
-    <t>乌冬县×Yadon 一日自由券</t>
-  </si>
-  <si>
-    <t>/images/coverage/Udonken-Yadon-1Day-Kippu.png</t>
-  </si>
-  <si>
     <t>Iyotetsu-City-Tram-Suburban-1Day</t>
   </si>
   <si>
@@ -476,23 +383,138 @@
     <t>/images/coverage/Shikoku-Shimanto-Uwakai-Free-Pass.png</t>
   </si>
   <si>
-    <t>Higashi-Kochi-1Day-Free</t>
-  </si>
-  <si>
-    <t>ひがしこうち1日フリーきっぷ</t>
-  </si>
-  <si>
-    <t>东高知一日自由通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/Higashi-Kochi-1Day-Free.png</t>
+    <t>四国</t>
+    <rPh sb="0" eb="2">
+      <t>シコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>周六、周日、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS PGothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>假日</t>
+    </r>
+  </si>
+  <si>
+    <t>１日×2枚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>琴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>电电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>子票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>琴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>电电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>子票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリー区間	タイプ	大人	小人
+中村・宿毛線(全線)	普通列車	2,080円	1,040円
+中村線(窪川～中村)	特急自由席
+普通列車	2,600円	1,300円</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -521,6 +543,51 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -543,10 +610,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -887,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD151"/>
+  <dimension ref="A1:AD144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -928,7 +1003,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -937,10 +1012,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
         <v>25</v>
@@ -987,16 +1062,22 @@
     </row>
     <row r="2" spans="1:30">
       <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
+      <c r="E2" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>9000</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
-        <v>27</v>
+      <c r="O2">
+        <v>3</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -1008,482 +1089,872 @@
         <v>24</v>
       </c>
       <c r="S2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
         <v>28</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
       </c>
       <c r="Z2">
         <v>3</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
+      <c r="E3" s="3">
+        <v>23000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
+      <c r="E4" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2050</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="20">
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:30" ht="20">
+      <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>60</v>
+      <c r="E8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>700</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>64</v>
+      <c r="E9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" t="s">
+        <v>24</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" t="s">
+        <v>24</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="19">
+      <c r="B13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G13">
+        <v>700</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="AD13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="20">
+      <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1350</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="19">
+      <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AD12" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="B13" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T13" s="2" t="s">
+    </row>
+    <row r="16" spans="1:30" ht="19">
+      <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AD13" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="B14" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD16" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="B15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="B16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:30">
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1150</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" t="s">
+        <v>24</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:30">
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+      <c r="E18">
+        <v>500</v>
+      </c>
+      <c r="G18">
+        <v>250</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" t="s">
+        <v>24</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:30">
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="E19">
+        <v>600</v>
+      </c>
+      <c r="G19">
+        <v>300</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" t="s">
+        <v>24</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:30">
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20">
+        <v>500</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
+      <c r="N20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" t="s">
+        <v>24</v>
+      </c>
       <c r="T20" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:30">
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G21">
+        <v>600</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" t="s">
+        <v>24</v>
+      </c>
       <c r="T21" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:30">
       <c r="B22" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G22">
+        <v>900</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" t="s">
+        <v>24</v>
+      </c>
       <c r="T22" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:30">
       <c r="B23" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1100</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" t="s">
+        <v>24</v>
+      </c>
       <c r="T23" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="2:30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" ht="144">
       <c r="B24" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" t="s">
+        <v>24</v>
+      </c>
       <c r="T24" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="2:30">
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2050</v>
+      </c>
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" t="s">
+        <v>24</v>
+      </c>
       <c r="T25" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="2:30">
-      <c r="B26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="T26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30">
-      <c r="B27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="T27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD27" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="2:30">
-      <c r="B28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="T28" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="2:30">
-      <c r="B29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="T29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD29" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="2:30">
-      <c r="B30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="T30" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD30" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="2:30">
-      <c r="B31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="2:30">
-      <c r="B32" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="11:13">
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="91" spans="11:13">
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="11:13">
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="11:13">
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="11:13">
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="11:13">
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
     </row>
     <row r="96" spans="11:13">
       <c r="K96" s="1"/>
@@ -1491,9 +1962,9 @@
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97">
-        <v>2330</v>
-      </c>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
     </row>
     <row r="98" spans="11:13">
       <c r="K98" s="1"/>
@@ -1729,41 +2200,6 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
-    </row>
-    <row r="145" spans="11:13">
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-    </row>
-    <row r="146" spans="11:13">
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-    </row>
-    <row r="147" spans="11:13">
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-    </row>
-    <row r="148" spans="11:13">
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-    </row>
-    <row r="149" spans="11:13">
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
-    </row>
-    <row r="150" spans="11:13">
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-    </row>
-    <row r="151" spans="11:13">
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/shikoku.xlsx
+++ b/src/excel-data/shikoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7205D329-6FAE-064E-899A-F662C1F38DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED882D71-8B4F-E54B-BF4F-1A8C2D3B0F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
   <si>
     <t>sortOrder</t>
   </si>
@@ -507,6 +507,10 @@
 中村・宿毛線(全線)	普通列車	2,080円	1,040円
 中村線(窪川～中村)	特急自由席
 普通列車	2,600円	1,300円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ticket_note</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -964,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1059,6 +1063,9 @@
       <c r="AA1" t="s">
         <v>22</v>
       </c>
+      <c r="AB1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="2" spans="1:30">
       <c r="B2" s="2" t="s">

--- a/src/excel-data/shikoku.xlsx
+++ b/src/excel-data/shikoku.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED882D71-8B4F-E54B-BF4F-1A8C2D3B0F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9971C3A6-01E4-1F41-A360-3C492DD0A306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,10 +98,7 @@
   </si>
   <si>
     <t>bestFor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>现金支付; 购票机可购买</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>地铁</t>
@@ -111,15 +108,15 @@
   </si>
   <si>
     <t>price_over65</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>price_under15</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>price_free</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>JRShikoku-FreePass</t>
@@ -128,9 +125,6 @@
     <t>四国フリーきっぷ</t>
   </si>
   <si>
-    <t>四国自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/JRShikoku-FreePass.png</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>四国グリーン紀行</t>
   </si>
   <si>
-    <t>四国绿行通票</t>
-  </si>
-  <si>
     <t>/images/coverage/JRShikoku-Green-Kiko.png</t>
   </si>
   <si>
@@ -152,9 +143,6 @@
     <t>四万十・宇和海フリーきっぷ</t>
   </si>
   <si>
-    <t>四万十·宇和海自由乘车券</t>
-  </si>
-  <si>
     <t>/images/coverage/Shimanto-Uwakai-FreeTicket.png</t>
   </si>
   <si>
@@ -164,9 +152,6 @@
     <t>ことでん・JRくるり～んきっぷ</t>
   </si>
   <si>
-    <t>琴电·JR转环通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Kotoden-JR-Kururin-Kippu.png</t>
   </si>
   <si>
@@ -200,9 +185,6 @@
     <t>ことでん１日フリーきっぷ</t>
   </si>
   <si>
-    <t>琴平电铁一日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Kotoden-1Day-FreePass.png</t>
   </si>
   <si>
@@ -230,9 +212,6 @@
     <t>レール＆リムジンパス</t>
   </si>
   <si>
-    <t>铁路和巴士通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Kotoden-Rail-Limousine-Pass.png</t>
   </si>
   <si>
@@ -263,9 +242,6 @@
     <t>やしま四国村・志度線パス</t>
   </si>
   <si>
-    <t>八岛四国村·志度线通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Yashima-Shikoku-Mura-Shido-Line-Pass.png</t>
   </si>
   <si>
@@ -299,9 +275,6 @@
     <t>電車１日乗車券～市内均一料金区間版～</t>
   </si>
   <si>
-    <t>土佐电车一日乘车券（市内均一价格区间版）</t>
-  </si>
-  <si>
     <t>/images/coverage/Tosaden-Densha-1Day-City-Fare.png</t>
   </si>
   <si>
@@ -323,9 +296,6 @@
     <t>電車１日乗車券～軌道全線版～</t>
   </si>
   <si>
-    <t>土佐电车一日票（轨道全线版）</t>
-  </si>
-  <si>
     <t>/images/coverage/Tosaden-Densha-1Day-Whole-Line.png</t>
   </si>
   <si>
@@ -344,12 +314,6 @@
     <t>Tosaden-Bus-Tram-1Day-Mobile-Ticket</t>
   </si>
   <si>
-    <t>バス・路面電車一日乗車券 モバイルチケット</t>
-  </si>
-  <si>
-    <t>土佐电车·巴士一日移动票</t>
-  </si>
-  <si>
     <t>/images/coverage/Tosaden-Bus-Tram-1Day-Mobile-Ticket.png</t>
   </si>
   <si>
@@ -359,9 +323,6 @@
     <t>ごめん・なはり線フリーきっぷ</t>
   </si>
   <si>
-    <t>土佐黑潮线自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Kurosio-Nahari-Sen-Free-Pass.png</t>
   </si>
   <si>
@@ -369,9 +330,6 @@
   </si>
   <si>
     <t>くろしお1日フリーきっぷ</t>
-  </si>
-  <si>
-    <t>黑潮1日自由通票</t>
   </si>
   <si>
     <t>/images/coverage/Kurosio-1Day-Free-Pass.png</t>
@@ -387,7 +345,7 @@
     <rPh sb="0" eb="2">
       <t>シコク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -416,7 +374,7 @@
   </si>
   <si>
     <t>１日×2枚</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -458,7 +416,7 @@
       </rPr>
       <t>24</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -500,30 +458,278 @@
       </rPr>
       <t>48</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ticket_note</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土佐电车1日票（轨道全线版）</t>
+  </si>
+  <si>
+    <t>土佐电车·巴士1日移动票</t>
+  </si>
+  <si>
+    <t>バス・路面電車1日乗車券 モバイルチケット</t>
+  </si>
+  <si>
+    <t>四万十·宇和海乘车券</t>
   </si>
   <si>
     <t>フリー区間	タイプ	大人	小人
 中村・宿毛線(全線)	普通列車	2,080円	1,040円
-中村線(窪川～中村)	特急自由席
+中村線(窪川～中村)	特急席
 普通列車	2,600円	1,300円</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ticket_note</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四国周游券</t>
+  </si>
+  <si>
+    <t>四国绿行周游券</t>
+  </si>
+  <si>
+    <t>琴电·JR转环周游券</t>
+  </si>
+  <si>
+    <t>琴平电铁1日周游券</t>
+  </si>
+  <si>
+    <t>铁路和巴士周游券</t>
+  </si>
+  <si>
+    <t>八岛四国村·志度线周游券</t>
+  </si>
+  <si>
+    <t>土佐黑潮线周游券</t>
+  </si>
+  <si>
+    <t>黑潮1日周游券</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>土佐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>电车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日乘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>券（市内均一价格区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>版）</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">票; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>票；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>购</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>票；</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -592,6 +798,13 @@
       <color rgb="FF000000"/>
       <name val="Hiragino Kaku Gothic ProN"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -612,20 +825,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -968,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -979,6 +1193,7 @@
     <col min="10" max="10" width="22.83203125" customWidth="1"/>
     <col min="11" max="11" width="19.5" customWidth="1"/>
     <col min="12" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -1007,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1016,10 +1231,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
       <c r="N1" t="s">
         <v>25</v>
@@ -1064,15 +1279,15 @@
         <v>22</v>
       </c>
       <c r="AB1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="20">
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="E2" s="3">
         <v>18000</v>
@@ -1080,8 +1295,8 @@
       <c r="G2" s="3">
         <v>9000</v>
       </c>
-      <c r="N2" t="s">
-        <v>26</v>
+      <c r="N2" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -1096,42 +1311,42 @@
         <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
         <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>28</v>
       </c>
       <c r="Z2">
         <v>3</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="20">
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3">
         <v>23000</v>
       </c>
-      <c r="N3" t="s">
-        <v>26</v>
+      <c r="N3" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O3">
         <v>4</v>
@@ -1146,18 +1361,18 @@
         <v>24</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AD3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="20">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="E4" s="3">
         <v>4100</v>
@@ -1165,8 +1380,8 @@
       <c r="G4" s="3">
         <v>2050</v>
       </c>
-      <c r="N4" t="s">
-        <v>26</v>
+      <c r="N4" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -1181,18 +1396,18 @@
         <v>24</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="20">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="E5" s="3">
         <v>2200</v>
@@ -1200,8 +1415,8 @@
       <c r="G5" s="3">
         <v>1100</v>
       </c>
-      <c r="N5" t="s">
-        <v>26</v>
+      <c r="N5" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -1216,18 +1431,18 @@
         <v>24</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="20">
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3">
         <v>12000</v>
@@ -1235,28 +1450,28 @@
       <c r="G6" s="3">
         <v>6000</v>
       </c>
-      <c r="N6" t="s">
-        <v>26</v>
+      <c r="N6" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="20">
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3">
         <v>2400</v>
@@ -1264,28 +1479,28 @@
       <c r="G7" s="3">
         <v>1200</v>
       </c>
-      <c r="N7" t="s">
-        <v>26</v>
+      <c r="N7" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="20">
       <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="E8" s="3">
         <v>1400</v>
@@ -1293,8 +1508,8 @@
       <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" t="s">
-        <v>26</v>
+      <c r="N8" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1309,24 +1524,24 @@
         <v>24</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="20">
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" t="s">
-        <v>26</v>
+      <c r="N9" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1341,18 +1556,18 @@
         <v>24</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="20">
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="E10" s="3">
         <v>2200</v>
@@ -1360,8 +1575,8 @@
       <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" t="s">
-        <v>26</v>
+      <c r="N10" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1376,27 +1591,27 @@
         <v>24</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="20">
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3">
         <v>3000</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" t="s">
-        <v>26</v>
+        <v>107</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1411,18 +1626,18 @@
         <v>24</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="20">
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3">
         <v>3800</v>
@@ -1433,8 +1648,8 @@
       <c r="K12" s="3">
         <v>2800</v>
       </c>
-      <c r="N12" t="s">
-        <v>26</v>
+      <c r="N12" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1449,18 +1664,18 @@
         <v>24</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="20">
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E13" s="3">
         <v>1400</v>
@@ -1468,8 +1683,8 @@
       <c r="G13">
         <v>700</v>
       </c>
-      <c r="N13" t="s">
-        <v>26</v>
+      <c r="N13" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1484,18 +1699,18 @@
         <v>24</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="20">
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E14" s="7">
         <v>2700</v>
@@ -1503,8 +1718,8 @@
       <c r="G14" s="3">
         <v>1350</v>
       </c>
-      <c r="N14" t="s">
-        <v>26</v>
+      <c r="N14" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1519,18 +1734,18 @@
         <v>24</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="21">
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E15" s="4">
         <v>2000</v>
@@ -1538,8 +1753,8 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" t="s">
-        <v>26</v>
+      <c r="N15" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1554,18 +1769,18 @@
         <v>24</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="19">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="21">
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E16" s="4">
         <v>2000</v>
@@ -1576,8 +1791,8 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" t="s">
-        <v>26</v>
+      <c r="N16" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1592,18 +1807,18 @@
         <v>24</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" ht="20">
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E17" s="3">
         <v>2300</v>
@@ -1614,8 +1829,8 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" t="s">
-        <v>26</v>
+      <c r="N17" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1630,18 +1845,18 @@
         <v>24</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="2:30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" ht="20">
       <c r="B18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -1652,8 +1867,8 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" t="s">
-        <v>26</v>
+      <c r="N18" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1668,18 +1883,18 @@
         <v>24</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:30">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" ht="20">
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E19">
         <v>600</v>
@@ -1690,8 +1905,8 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" t="s">
-        <v>26</v>
+      <c r="N19" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1706,18 +1921,18 @@
         <v>24</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" ht="20">
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E20" s="3">
         <v>1000</v>
@@ -1728,8 +1943,8 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" t="s">
-        <v>26</v>
+      <c r="N20" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1744,18 +1959,18 @@
         <v>24</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="2:30">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" ht="20">
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E21" s="3">
         <v>1200</v>
@@ -1766,8 +1981,8 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" t="s">
-        <v>26</v>
+      <c r="N21" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1782,18 +1997,18 @@
         <v>24</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="2:30">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" ht="20">
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E22" s="3">
         <v>1800</v>
@@ -1804,8 +2019,8 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" t="s">
-        <v>26</v>
+      <c r="N22" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1820,18 +2035,18 @@
         <v>24</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="2:30">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" ht="20">
       <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E23" s="3">
         <v>2200</v>
@@ -1842,8 +2057,8 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" t="s">
-        <v>26</v>
+      <c r="N23" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1858,26 +2073,26 @@
         <v>24</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="2:30" ht="144">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" ht="147">
       <c r="B24" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="N24" t="s">
-        <v>26</v>
+        <v>115</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -1892,18 +2107,18 @@
         <v>24</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="AD24" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" ht="20">
+      <c r="B25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="2:30">
-      <c r="B25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E25" s="3">
         <v>4100</v>
@@ -1911,8 +2126,8 @@
       <c r="G25" s="3">
         <v>2050</v>
       </c>
-      <c r="N25" t="s">
-        <v>26</v>
+      <c r="N25" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -1927,10 +2142,10 @@
         <v>24</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="11:13">
@@ -2209,7 +2424,7 @@
       <c r="M144" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>